--- a/Phase 2/Sprint4/Sprint backlog.xlsx
+++ b/Phase 2/Sprint4/Sprint backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guima\OneDrive\Imagens\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E4182-A5AC-4BEF-9281-811D1E7FC2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B09C49-3163-4AF2-82A4-218D569184BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>TO DO</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Report a explicar as metricas</t>
+  </si>
+  <si>
+    <t>Testes unitarios</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -610,17 +613,18 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="9"/>
@@ -631,6 +635,9 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="5"/>
     </row>

--- a/Phase 2/Sprint4/Sprint backlog.xlsx
+++ b/Phase 2/Sprint4/Sprint backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guima\OneDrive\Imagens\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B09C49-3163-4AF2-82A4-218D569184BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D74F5EC-4E4F-4FA4-9BEB-6E2C6334F141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TO DO</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Testes unitarios</t>
+  </si>
+  <si>
+    <t>UseCases</t>
   </si>
 </sst>
 </file>
@@ -106,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,24 +132,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,9 +148,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,7 +565,7 @@
   <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -592,63 +579,64 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="E3" s="7" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H8" s="3"/>
